--- a/TestData/QuebecFinances.xlsx
+++ b/TestData/QuebecFinances.xlsx
@@ -9,12 +9,27 @@
     <sheet name="Boischatel" r:id="rId3" sheetId="1"/>
     <sheet name="Sainte-Brigitte-de-Laval" r:id="rId4" sheetId="2"/>
     <sheet name="Saint-Philippe" r:id="rId5" sheetId="3"/>
+    <sheet name="Amos" r:id="rId6" sheetId="4"/>
+    <sheet name="L'Ange-Gardien" r:id="rId7" sheetId="5"/>
+    <sheet name="La Sarre" r:id="rId8" sheetId="6"/>
+    <sheet name="Richmond" r:id="rId9" sheetId="7"/>
+    <sheet name="Cap-Saint-Ignace" r:id="rId10" sheetId="8"/>
+    <sheet name="Ferme-Neuve" r:id="rId11" sheetId="9"/>
+    <sheet name="Notre-Dame-de-l'Île-Perrot" r:id="rId12" sheetId="10"/>
+    <sheet name="Roxton Pond" r:id="rId13" sheetId="11"/>
+    <sheet name="La Pêche" r:id="rId14" sheetId="12"/>
+    <sheet name="Piedmont" r:id="rId15" sheetId="13"/>
+    <sheet name="Gaspé" r:id="rId16" sheetId="14"/>
+    <sheet name="Montmagny" r:id="rId17" sheetId="15"/>
+    <sheet name="Mont-Tremblant" r:id="rId18" sheetId="16"/>
+    <sheet name="Régie intermunicipale de gestio" r:id="rId19" sheetId="17"/>
+    <sheet name="Saint-Cyrille-de-Wendover" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="155">
   <si>
     <t>Financial terms of the winning bid</t>
   </si>
@@ -107,6 +122,399 @@
   </si>
   <si>
     <t>Weighted average maturity based on nominal value of the bonds issue 57 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 99.19642</t>
+  </si>
+  <si>
+    <t>February 18, 2026 829 000 2.95</t>
+  </si>
+  <si>
+    <t>February 18, 2027 863 000 3.05</t>
+  </si>
+  <si>
+    <t>February 18, 2028 898 000 3.10</t>
+  </si>
+  <si>
+    <t>February 18, 2029 935 000 3.20</t>
+  </si>
+  <si>
+    <t>February 18, 2030 (2) 1 604 000 3.35</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.48632 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 40 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 99.09174</t>
+  </si>
+  <si>
+    <t>February 18, 2026 402 000 2.95</t>
+  </si>
+  <si>
+    <t>February 18, 2027 417 000 3.05</t>
+  </si>
+  <si>
+    <t>February 18, 2028 433 000 3.10</t>
+  </si>
+  <si>
+    <t>February 18, 2029 232 000 3.20</t>
+  </si>
+  <si>
+    <t>February 18, 2030 (2) 1 486 000 3.35</t>
+  </si>
+  <si>
+    <t>Total 2 970 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.53622 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 44 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.58700</t>
+  </si>
+  <si>
+    <t>February 18, 2026 189 000 2.90</t>
+  </si>
+  <si>
+    <t>February 18, 2027 197 000 3.00</t>
+  </si>
+  <si>
+    <t>February 18, 2028 205 000 3.10</t>
+  </si>
+  <si>
+    <t>February 18, 2029 213 000 3.15</t>
+  </si>
+  <si>
+    <t>February 18, 2030 (2) 2 820 000 3.25</t>
+  </si>
+  <si>
+    <t>Total 3 624 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.57555 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 54 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.65700</t>
+  </si>
+  <si>
+    <t>February 18, 2026 81 000 2.90</t>
+  </si>
+  <si>
+    <t>February 18, 2027 85 000 3.00</t>
+  </si>
+  <si>
+    <t>February 18, 2028 88 000 3.10</t>
+  </si>
+  <si>
+    <t>February 18, 2029 91 000 3.15</t>
+  </si>
+  <si>
+    <t>February 18, 2030 (2) 1 729 000 3.30</t>
+  </si>
+  <si>
+    <t>Total 2 074 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.60035 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 55 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.96100</t>
+  </si>
+  <si>
+    <t>February 14, 2026 166 000 2.50</t>
+  </si>
+  <si>
+    <t>February 14, 2027 173 000 2.50</t>
+  </si>
+  <si>
+    <t>February 14, 2028 180 000 2.75</t>
+  </si>
+  <si>
+    <t>February 14, 2029 188 000 3.25</t>
+  </si>
+  <si>
+    <t>February 14, 2030 (2) 2 860 000 3.50</t>
+  </si>
+  <si>
+    <t>Total 3 567 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.68166 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.41000</t>
+  </si>
+  <si>
+    <t>February 14, 2026 111 000 3.00</t>
+  </si>
+  <si>
+    <t>February 14, 2027 116 000 3.05</t>
+  </si>
+  <si>
+    <t>February 14, 2028 120 000 3.10</t>
+  </si>
+  <si>
+    <t>February 14, 2029 125 000 3.20</t>
+  </si>
+  <si>
+    <t>February 14, 2030 (2) 2 523 000 3.35</t>
+  </si>
+  <si>
+    <t>Total 2 995 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.70901 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.63400</t>
+  </si>
+  <si>
+    <t>February 14, 2026 186 000 2.90</t>
+  </si>
+  <si>
+    <t>February 14, 2027 194 000 3.00</t>
+  </si>
+  <si>
+    <t>February 14, 2028 201 000 3.10</t>
+  </si>
+  <si>
+    <t>February 14, 2029 209 000 3.20</t>
+  </si>
+  <si>
+    <t>February 14, 2030 (2) 1 507 000 3.30</t>
+  </si>
+  <si>
+    <t>Total 2 297 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.61664 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 50 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.58400</t>
+  </si>
+  <si>
+    <t>February 14, 2026 375 000 2.90</t>
+  </si>
+  <si>
+    <t>February 14, 2027 391 000 3.00</t>
+  </si>
+  <si>
+    <t>February 14, 2028 408 000 3.10</t>
+  </si>
+  <si>
+    <t>February 14, 2029 425 000 3.20</t>
+  </si>
+  <si>
+    <t>February 14, 2030 (2) 2 959 000 3.30</t>
+  </si>
+  <si>
+    <t>Total 4 558 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.63024 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.40700</t>
+  </si>
+  <si>
+    <t>February 13, 2026 399 000 2.95</t>
+  </si>
+  <si>
+    <t>February 13, 2027 414 000 2.95</t>
+  </si>
+  <si>
+    <t>February 13, 2028 430 000 3.00</t>
+  </si>
+  <si>
+    <t>February 13, 2029 448 000 3.15</t>
+  </si>
+  <si>
+    <t>February 13, 2030 (2) 2 665 000 3.25</t>
+  </si>
+  <si>
+    <t>Total 4 356 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.62916 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 49 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.29600</t>
+  </si>
+  <si>
+    <t>February 13, 2026 179 000 2.95</t>
+  </si>
+  <si>
+    <t>February 13, 2027 186 000 2.95</t>
+  </si>
+  <si>
+    <t>February 13, 2028 194 000 3.00</t>
+  </si>
+  <si>
+    <t>February 13, 2029 202 000 3.15</t>
+  </si>
+  <si>
+    <t>February 13, 2030 (2) 2 201 000 3.25</t>
+  </si>
+  <si>
+    <t>Total 2 962 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.64638 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.78900</t>
+  </si>
+  <si>
+    <t>February 10, 2026 266 000 3.00</t>
+  </si>
+  <si>
+    <t>February 10, 2027 277 000 3.10</t>
+  </si>
+  <si>
+    <t>February 10, 2028 287 000 3.25</t>
+  </si>
+  <si>
+    <t>February 10, 2029 298 000 3.40</t>
+  </si>
+  <si>
+    <t>February 10, 2030 (2) 2 279 000 3.50</t>
+  </si>
+  <si>
+    <t>Total 3 407 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.76741 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.96277</t>
+  </si>
+  <si>
+    <t>February 10, 2026 427 000 3.10</t>
+  </si>
+  <si>
+    <t>February 10, 2027 445 000 3.20</t>
+  </si>
+  <si>
+    <t>February 10, 2028 463 000 3.30</t>
+  </si>
+  <si>
+    <t>February 10, 2029 483 000 3.40</t>
+  </si>
+  <si>
+    <t>February 10, 2030 (2) 3 191 000 3.55</t>
+  </si>
+  <si>
+    <t>Total 5 009 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.76953 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 99.61900</t>
+  </si>
+  <si>
+    <t>February 10, 2026 649 000 3.30</t>
+  </si>
+  <si>
+    <t>February 10, 2027 675 000 3.40</t>
+  </si>
+  <si>
+    <t>February 10, 2028 702 000 3.50</t>
+  </si>
+  <si>
+    <t>February 10, 2029 731 000 3.60</t>
+  </si>
+  <si>
+    <t>February 10, 2030 (2) 3 746 000 3.70</t>
+  </si>
+  <si>
+    <t>Total 6 503 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.74993 %</t>
+  </si>
+  <si>
+    <t>Weighted average maturity based on nominal value of the bonds issue 48 months</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.50400</t>
+  </si>
+  <si>
+    <t>February 10, 2026 246 000 3.10</t>
+  </si>
+  <si>
+    <t>February 10, 2027 256 000 3.15</t>
+  </si>
+  <si>
+    <t>February 10, 2028 266 000 3.20</t>
+  </si>
+  <si>
+    <t>February 10, 2029 276 000 3.35</t>
+  </si>
+  <si>
+    <t>February 10, 2030 (2) 1 906 000 3.45</t>
+  </si>
+  <si>
+    <t>Total 2 950 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.80100 %</t>
+  </si>
+  <si>
+    <t>Price offered
+(per $100 of the nominal amount) 98.79850</t>
+  </si>
+  <si>
+    <t>February 10, 2026 215 000 3.10</t>
+  </si>
+  <si>
+    <t>February 10, 2027 223 000 3.20</t>
+  </si>
+  <si>
+    <t>February 10, 2028 232 000 3.30</t>
+  </si>
+  <si>
+    <t>February 10, 2029 241 000 3.40</t>
+  </si>
+  <si>
+    <t>February 10, 2030 (2) 3 787 000 3.55</t>
+  </si>
+  <si>
+    <t>Total 4 698 000 n/a</t>
+  </si>
+  <si>
+    <t>Borrower’s cost (3) 3.81505 %</t>
   </si>
 </sst>
 </file>
@@ -547,6 +955,3588 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K11"/>
@@ -1341,4 +5331,2392 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>